--- a/docs/Log.xlsx
+++ b/docs/Log.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Andrew\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Andrew\Dropbox\School\2015\Information Processes &amp; Technology\[AS1] Multimedia Presentation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>Create documentation</t>
+  </si>
+  <si>
+    <t>Shaurya</t>
+  </si>
+  <si>
+    <t>Send Project Ara info</t>
   </si>
 </sst>
 </file>
@@ -405,16 +411,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
@@ -432,7 +438,9 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>42037</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -441,6 +449,9 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>42037</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
@@ -490,6 +501,17 @@
       </c>
       <c r="D9" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>42061</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Log.xlsx
+++ b/docs/Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -63,13 +63,19 @@
   </si>
   <si>
     <t>Send Project Ara info</t>
+  </si>
+  <si>
+    <t>Send Microsoft Hololens info</t>
+  </si>
+  <si>
+    <t>Assign roles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +91,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -116,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,6 +142,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,18 +427,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -438,8 +454,8 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>42037</v>
+      <c r="B3" s="5">
+        <v>42023</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -449,8 +465,8 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>42037</v>
+      <c r="B4" s="5">
+        <v>42023</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
@@ -459,26 +475,37 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>42047</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
-        <v>42037</v>
+        <v>42048</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <v>42039</v>
+        <v>42040</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -511,6 +538,17 @@
         <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>42064</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/docs/Log.xlsx
+++ b/docs/Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Assign roles</t>
+  </si>
+  <si>
+    <t>Send Smart Machines info</t>
+  </si>
+  <si>
+    <t>Send Zoomable Contact Lens info</t>
   </si>
 </sst>
 </file>
@@ -427,10 +433,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -552,6 +558,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>42072</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>42073</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/docs/Log.xlsx
+++ b/docs/Log.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Send Project Ara info</t>
   </si>
   <si>
-    <t>Send Microsoft Hololens info</t>
-  </si>
-  <si>
     <t>Assign roles</t>
   </si>
   <si>
@@ -75,6 +72,81 @@
   </si>
   <si>
     <t>Send Zoomable Contact Lens info</t>
+  </si>
+  <si>
+    <t>Begin creating presentation</t>
+  </si>
+  <si>
+    <t>Describe presentation features</t>
+  </si>
+  <si>
+    <t>Begin storyboard</t>
+  </si>
+  <si>
+    <t>Finish storyboard</t>
+  </si>
+  <si>
+    <t>Finish presentation (Adjust and optimise)</t>
+  </si>
+  <si>
+    <t>Merge technology information</t>
+  </si>
+  <si>
+    <t>Begin completing documentation</t>
+  </si>
+  <si>
+    <t>Complete documentation</t>
+  </si>
+  <si>
+    <t>Finish response for "Da" and "Db"</t>
+  </si>
+  <si>
+    <t>Send response for the Kiosk question</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Send response for Question D parts </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>"a" and "b"</t>
+    </r>
+  </si>
+  <si>
+    <t>Decide on third design tool (a log)</t>
+  </si>
+  <si>
+    <t>Gather information on the Microsoft Hololens</t>
+  </si>
+  <si>
+    <t>Gather information on Smart Machines</t>
+  </si>
+  <si>
+    <t>Gather information on the Zoomable Contact Lens</t>
+  </si>
+  <si>
+    <t>Start on "Da" and "Db" response</t>
+  </si>
+  <si>
+    <t>Start on response for the Kiosk question</t>
+  </si>
+  <si>
+    <t>Finish response for the Kiosk question</t>
+  </si>
+  <si>
+    <t>Suspend presentation design (Waiting for the rest of the technology information before I can continue)</t>
+  </si>
+  <si>
+    <t>Send Microsoft Hololens information</t>
+  </si>
+  <si>
+    <t>Gather information on Project Ara</t>
   </si>
 </sst>
 </file>
@@ -135,15 +207,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -433,10 +502,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -444,7 +513,7 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -460,127 +529,353 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>42023</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>42023</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>42047</v>
+      <c r="B5" s="4">
+        <v>42040</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>42048</v>
+      <c r="B6" s="4">
+        <v>42041</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>42040</v>
+      <c r="B7" s="4">
+        <v>42043</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>42044</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>42044</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>42047</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>42048</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>42052</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>42061</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>42061</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>42063</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>42064</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>42064</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>42067</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>42072</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>42044</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>42044</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>42061</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>42064</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
         <v>42072</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>42073</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>42073</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>16</v>
-      </c>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>42075</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>42080</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>42081</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>42081</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>42082</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>42086</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>42087</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>42089</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>42089</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>42092</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>42092</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>42092</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="B2:D34">
+    <sortCondition ref="B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
